--- a/out/Ray.xlsx
+++ b/out/Ray.xlsx
@@ -126,9 +126,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
-    <cellStyle name="8099987795171720890" xfId="1" hidden="0"/>
-    <cellStyle name="7799140020715055018" xfId="2" hidden="0"/>
-    <cellStyle name="-7809960507378706918" xfId="3" hidden="0"/>
+    <cellStyle name="-3908120269321998247" xfId="1" hidden="0"/>
+    <cellStyle name="-6294426059420885255" xfId="2" hidden="0"/>
+    <cellStyle name="6536720844549228986" xfId="3" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
